--- a/resources/data_layout.xlsx
+++ b/resources/data_layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonof\UCSDProjects\SanDiegoCountyPotholeAnalysis\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815BB35E-3788-4C41-9A0F-B4F371EB980D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C48FA8-C9F9-4480-A0AD-603D73F3265E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17505" yWindow="300" windowWidth="16800" windowHeight="14460" xr2:uid="{D232276A-B7C0-464D-80E0-6BAC75B0FFD4}"/>
+    <workbookView xWindow="5565" yWindow="900" windowWidth="16800" windowHeight="14460" xr2:uid="{D232276A-B7C0-464D-80E0-6BAC75B0FFD4}"/>
   </bookViews>
   <sheets>
     <sheet name="pothole_layout" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>service_request_id</t>
   </si>
@@ -176,9 +176,6 @@
     <t>sapnotificationnumber</t>
   </si>
   <si>
-    <t>daterequested</t>
-  </si>
-  <si>
     <t>caseagedays</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
     <t>caserecordtype</t>
   </si>
   <si>
-    <t>dateclosed</t>
-  </si>
-  <si>
     <t>streetaddress</t>
   </si>
   <si>
@@ -221,19 +215,31 @@
     <t>varchar(20)</t>
   </si>
   <si>
-    <t>DateTime</t>
-  </si>
-  <si>
     <t>Int</t>
   </si>
   <si>
-    <t>Float(5,10)</t>
-  </si>
-  <si>
     <t>varchar(100)</t>
   </si>
   <si>
     <t>varchar(250)</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>skdateclosed</t>
+  </si>
+  <si>
+    <t>skdaterequested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date </t>
+  </si>
+  <si>
+    <t>location(lat, lng)</t>
+  </si>
+  <si>
+    <t>Point</t>
   </si>
 </sst>
 </file>
@@ -603,7 +609,7 @@
   <dimension ref="B1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,10 +636,10 @@
         <v>80508</v>
       </c>
       <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
         <v>61</v>
-      </c>
-      <c r="F2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -644,10 +650,10 @@
         <v>52352</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -658,7 +664,7 @@
         <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -669,10 +675,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -683,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -697,10 +703,10 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -711,10 +717,10 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -725,10 +731,10 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -742,7 +748,7 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -753,10 +759,10 @@
         <v>32.831881000000003</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -766,22 +772,16 @@
       <c r="C12">
         <v>-117.231233</v>
       </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -792,7 +792,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -803,10 +803,10 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -817,10 +817,10 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -831,10 +831,10 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -842,10 +842,10 @@
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -856,10 +856,10 @@
         <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -870,7 +870,7 @@
         <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -881,10 +881,10 @@
         <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
         <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -906,7 +906,7 @@
         <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
